--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.1393547707595546</v>
+        <v>-0.1526314041118104</v>
       </c>
       <c r="D2">
-        <v>0.8891865242524339</v>
+        <v>0.8800801668149112</v>
       </c>
       <c r="E2">
         <v>0.5721105326633114</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.2271938513439817</v>
+        <v>0.1907607838301029</v>
       </c>
       <c r="D3">
-        <v>0.8203006679320886</v>
+        <v>0.8504624286690567</v>
       </c>
       <c r="E3">
         <v>0.5721105326633114</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2.630094052534549</v>
+        <v>2.142644983921303</v>
       </c>
       <c r="D4">
-        <v>0.008614131700357186</v>
+        <v>0.04345948721276871</v>
       </c>
       <c r="E4">
         <v>0.5721105326633114</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>2.108681726555152</v>
+        <v>2.218976492267076</v>
       </c>
       <c r="D5">
-        <v>0.0351198395815091</v>
+        <v>0.03711273325222852</v>
       </c>
       <c r="E5">
         <v>0.5721105326633114</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.3112178787346935</v>
+        <v>0.2975835928242627</v>
       </c>
       <c r="D6">
-        <v>0.7556736268358408</v>
+        <v>0.7688129552271723</v>
       </c>
       <c r="E6">
         <v>0.5746629272403256</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.486523237828835</v>
+        <v>2.786975984990386</v>
       </c>
       <c r="D7">
-        <v>0.01299636358690326</v>
+        <v>0.0107485615817795</v>
       </c>
       <c r="E7">
         <v>0.5746629272403256</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.954377709014093</v>
+        <v>2.615667005362166</v>
       </c>
       <c r="D8">
-        <v>0.05082234410355468</v>
+        <v>0.01578742879189399</v>
       </c>
       <c r="E8">
         <v>0.5746629272403256</v>
@@ -609,7 +609,7 @@
         <v>0.5362388121754231</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.188136168083953</v>
+        <v>1.86432088353592</v>
       </c>
       <c r="D9">
-        <v>0.02879709033401312</v>
+        <v>0.07567538135986029</v>
       </c>
       <c r="E9">
         <v>0.5683125300865078</v>
@@ -635,7 +635,7 @@
         <v>0.5295197719051405</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.835384711511847</v>
+        <v>2.487984036173935</v>
       </c>
       <c r="D10">
-        <v>0.06662549426255815</v>
+        <v>0.02090818848079112</v>
       </c>
       <c r="E10">
         <v>0.5683125300865078</v>
@@ -661,7 +661,7 @@
         <v>0.5362388121754231</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.385305688898235</v>
+        <v>-0.4511468237515471</v>
       </c>
       <c r="D11">
-        <v>0.7000597535573987</v>
+        <v>0.6562992614982801</v>
       </c>
       <c r="E11">
         <v>0.5295197719051405</v>
